--- a/pred_ohlcv/54_21/2020-01-22 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 FNB ohlcv.xlsx
@@ -2290,7 +2290,7 @@
         <v>-15562314.1904</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-15562070.1904</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-15562958.1904</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-15562958.1904</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-14050850.5169</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-14075850.5169</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-14055388.4985</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-14055388.4985</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-13406606.60319776</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-10899999.64399776</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-13436209.72795663</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-13436209.72795663</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-12405310.98075663</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-12405310.98075663</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-12622001.07375663</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-17542170.21175663</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-18599904.49885663</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-18599660.49885663</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-20529651.27685662</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-20529651.27685662</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-21546065.77735662</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-21759831.77625662</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-21598065.77735662</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-24349810.27575662</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-24372496.61155662</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-24372940.61155662</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 FNB ohlcv.xlsx
@@ -2290,7 +2290,7 @@
         <v>-15562314.1904</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-15562070.1904</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-15562958.1904</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-15562958.1904</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-14050850.5169</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-14075850.5169</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-14055388.4985</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-14055388.4985</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-13406606.60319776</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-10899999.64399776</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-11995104.69455663</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-13436209.72795663</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-13436209.72795663</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-12405310.98075663</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-12405310.98075663</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-12622001.07375663</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-18599904.49885663</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-18599660.49885663</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-20529651.27685662</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-20529651.27685662</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-20326935.75515661</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-21126767.92405662</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-21546065.77735662</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-21546065.77735662</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-21546065.77735662</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-21759831.77625662</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-21723065.77735662</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-21723065.77735662</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-21598065.77735662</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-21310065.77735662</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-21795005.97005662</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-21795005.97005662</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-21816899.57115662</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-21816899.57115662</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-21838184.18505662</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-21837884.18505662</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-23378786.70305661</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-23378786.70305661</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-23378786.70305661</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-22053006.10865662</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-22053256.10865662</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-22053256.10865662</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-22053481.63385661</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-21628513.66575661</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-21679399.24585661</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-21603516.60725661</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-21531786.60725661</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-21968254.80115661</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-21968004.80115661</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-24349810.27575662</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-24372496.61155662</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-24372940.61155662</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-28362394.61915662</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-28362150.61915662</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-28362150.61915662</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-28362150.61915662</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
